--- a/ysrs2 ssa/matrixes/vectors.xlsx
+++ b/ysrs2 ssa/matrixes/vectors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2629783416173167</v>
+        <v>0.2776386982356317</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2294127234000497</v>
+        <v>-0.23604712188397</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3646842792883099</v>
+        <v>-0.4182492285314239</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3988197022983971</v>
+        <v>0.4142752452009365</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3683695308223492</v>
+        <v>-0.2737950593155914</v>
       </c>
     </row>
     <row r="3">
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2604212716459714</v>
+        <v>0.2751397658095718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3229407223642795</v>
+        <v>-0.3223444026074188</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2442579439805626</v>
+        <v>-0.292336359186932</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3559864166266413</v>
+        <v>0.2923832480224156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09658710491181444</v>
+        <v>-0.09365034383288866</v>
       </c>
     </row>
     <row r="4">
@@ -495,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2584984815973911</v>
+        <v>0.2727986977661587</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3636529774184691</v>
+        <v>-0.3611872270012924</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.08190496039613096</v>
+        <v>-0.1115849884548746</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1522456154058466</v>
+        <v>0.04301590552305697</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3073163238924898</v>
+        <v>0.2898385769221218</v>
       </c>
     </row>
     <row r="5">
@@ -515,19 +515,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2571426682874832</v>
+        <v>0.2710486637276452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3449713905250367</v>
+        <v>-0.3423279971247559</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08246603375376943</v>
+        <v>0.07194096548077974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1008163791810525</v>
+        <v>-0.2125818252222675</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4562958090715525</v>
+        <v>0.4242803674394535</v>
       </c>
     </row>
     <row r="6">
@@ -535,19 +535,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2565234518146216</v>
+        <v>0.27050033364696</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2692433994691206</v>
+        <v>-0.2643197397684402</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2128605655182764</v>
+        <v>0.2165727820829542</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3035070211531307</v>
+        <v>-0.3577389886532019</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2305420597837312</v>
+        <v>0.1507415991207093</v>
       </c>
     </row>
     <row r="7">
@@ -555,19 +555,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2552632989436174</v>
+        <v>0.2698146842081763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1656838784712177</v>
+        <v>-0.153783131185667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3178084840132335</v>
+        <v>0.3208102617733549</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2747710611265219</v>
+        <v>-0.2679692699967574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1608167293897555</v>
+        <v>-0.2569543648319169</v>
       </c>
     </row>
     <row r="8">
@@ -575,19 +575,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2542744698891801</v>
+        <v>0.269017449167217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03689663302364045</v>
+        <v>-0.02474894780885691</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3618497047899313</v>
+        <v>0.3572792042086653</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08854227666122594</v>
+        <v>-0.008397440817355857</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4240696618909973</v>
+        <v>-0.4772293225429007</v>
       </c>
     </row>
     <row r="9">
@@ -595,19 +595,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.253246413222043</v>
+        <v>0.2681269930992963</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0965740712943081</v>
+        <v>0.1072068281710587</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3460204552720591</v>
+        <v>0.3328453965282794</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1035819018082338</v>
+        <v>0.2259209801083708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3249570024535361</v>
+        <v>-0.2736441462810427</v>
       </c>
     </row>
     <row r="10">
@@ -615,19 +615,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2509051695446979</v>
+        <v>0.2667137845380258</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2048958422565945</v>
+        <v>0.2224814403515821</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2998758200535255</v>
+        <v>0.2713168401051604</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2779449395400121</v>
+        <v>0.3523462173661724</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0503704505814749</v>
+        <v>0.185603807348223</v>
       </c>
     </row>
     <row r="11">
@@ -635,19 +635,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2493358321878802</v>
+        <v>0.2652940227031764</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2973072885871616</v>
+        <v>0.3115063811691925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1763303118682306</v>
+        <v>0.1303826386438549</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2878133823550499</v>
+        <v>0.2566529246012451</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2550683665229043</v>
+        <v>0.3899834922421908</v>
       </c>
     </row>
     <row r="12">
@@ -655,19 +655,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2486032342549213</v>
+        <v>0.2637765907961352</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3535666350235449</v>
+        <v>0.3541382618721791</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003817260387968864</v>
+        <v>-0.05961637615235373</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1622679323698379</v>
+        <v>0.04156936701049795</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2011368367738883</v>
+        <v>0.2079904842033242</v>
       </c>
     </row>
     <row r="13">
@@ -675,19 +675,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.246065807292705</v>
+        <v>0.2610636829777343</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3391327192639663</v>
+        <v>0.3355258761244662</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1532698274116049</v>
+        <v>-0.2138283405220615</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.005531096866281895</v>
+        <v>-0.1564711046603464</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1016700289671404</v>
+        <v>-0.02722959222535455</v>
       </c>
     </row>
     <row r="14">
@@ -695,19 +695,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2419134475380858</v>
+        <v>0.2568204368805638</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2683212711313113</v>
+        <v>0.2655545728250846</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2372989881205527</v>
+        <v>-0.2965068712464946</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1354573279237192</v>
+        <v>-0.2966815092273329</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.05060611043974619</v>
+        <v>-0.1185747259579901</v>
       </c>
     </row>
     <row r="15">
@@ -715,59 +715,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.237901527797755</v>
+        <v>0.2527632363148538</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.17918144086331</v>
+        <v>0.179070408140679</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.276295502835354</v>
+        <v>-0.3254495131697182</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2811654262635747</v>
+        <v>-0.3751018790046719</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02146986950181992</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.2337234960469609</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-0.08186795098162988</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-0.2622188612738324</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.3503243857061969</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.05729074715549812</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.2304491587232229</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005692183083659282</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-0.2256641378890136</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2968298944391141</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2513718342388743</v>
+        <v>-0.1275569361336337</v>
       </c>
     </row>
   </sheetData>

--- a/ysrs2 ssa/matrixes/vectors.xlsx
+++ b/ysrs2 ssa/matrixes/vectors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2776386982356317</v>
+        <v>0.296499781688165</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.23604712188397</v>
+        <v>-0.3032713589604273</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4182492285314239</v>
+        <v>-0.4619072681390753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4142752452009365</v>
+        <v>0.3382487615081529</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2737950593155914</v>
+        <v>-0.2507085100754975</v>
       </c>
     </row>
     <row r="3">
@@ -475,19 +475,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2751397658095718</v>
+        <v>0.2936319174291205</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3223444026074188</v>
+        <v>-0.3657782324398143</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.292336359186932</v>
+        <v>-0.2789994659427763</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2923832480224156</v>
+        <v>0.2653033516014567</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.09365034383288866</v>
+        <v>0.07681317617095176</v>
       </c>
     </row>
     <row r="4">
@@ -495,19 +495,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2727986977661587</v>
+        <v>0.2914129973252413</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3611872270012924</v>
+        <v>-0.366218348736748</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1115849884548746</v>
+        <v>-0.04723420779322476</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04301590552305697</v>
+        <v>-0.07146340251887141</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2898385769221218</v>
+        <v>0.3866268461482309</v>
       </c>
     </row>
     <row r="5">
@@ -515,19 +515,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2710486637276452</v>
+        <v>0.2902810321527141</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3423279971247559</v>
+        <v>-0.3029927863840471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07194096548077974</v>
+        <v>0.1569745895964691</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2125818252222675</v>
+        <v>-0.3896096418245257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4242803674394535</v>
+        <v>0.2430990491193643</v>
       </c>
     </row>
     <row r="6">
@@ -535,19 +535,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.27050033364696</v>
+        <v>0.2899352753154404</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2643197397684402</v>
+        <v>-0.1945509161406058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2165727820829542</v>
+        <v>0.2912216383807411</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3577389886532019</v>
+        <v>-0.3935760848902482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1507415991207093</v>
+        <v>-0.1292899518192267</v>
       </c>
     </row>
     <row r="7">
@@ -555,19 +555,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2698146842081763</v>
+        <v>0.2893878954677647</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.153783131185667</v>
+        <v>-0.06185440384312837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3208102617733549</v>
+        <v>0.3624136872590779</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2679692699967574</v>
+        <v>-0.1060457606003865</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2569543648319169</v>
+        <v>-0.4172243693249731</v>
       </c>
     </row>
     <row r="8">
@@ -575,19 +575,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.269017449167217</v>
+        <v>0.289496451028508</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02474894780885691</v>
+        <v>0.0826851757187682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3572792042086653</v>
+        <v>0.3510922538302749</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008397440817355857</v>
+        <v>0.2905152036826487</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4772293225429007</v>
+        <v>-0.3673583613841278</v>
       </c>
     </row>
     <row r="9">
@@ -595,19 +595,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2681269930992963</v>
+        <v>0.2887045899840887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1072068281710587</v>
+        <v>0.2110688203195669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3328453965282794</v>
+        <v>0.2603415201347565</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2259209801083708</v>
+        <v>0.4569195094232054</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2736441462810427</v>
+        <v>0.08202120452203769</v>
       </c>
     </row>
     <row r="10">
@@ -615,19 +615,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2667137845380258</v>
+        <v>0.2864481601428938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2224814403515821</v>
+        <v>0.3071696080637129</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2713168401051604</v>
+        <v>0.1270768200409015</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3523462173661724</v>
+        <v>0.221048977460922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.185603807348223</v>
+        <v>0.4299922519600935</v>
       </c>
     </row>
     <row r="11">
@@ -635,19 +635,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2652940227031764</v>
+        <v>0.2847579626016182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3115063811691925</v>
+        <v>0.3639117507496945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1303826386438549</v>
+        <v>-0.0657723929361213</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2566529246012451</v>
+        <v>-0.107757999867109</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3899834922421908</v>
+        <v>0.3213272563384991</v>
       </c>
     </row>
     <row r="12">
@@ -655,19 +655,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2637765907961352</v>
+        <v>0.2830161140700593</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3541382618721791</v>
+        <v>0.363692435449309</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.05961637615235373</v>
+        <v>-0.2798714289848784</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04156936701049795</v>
+        <v>-0.2558724246857995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2079904842033242</v>
+        <v>-0.06153251381768386</v>
       </c>
     </row>
     <row r="13">
@@ -675,59 +675,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2610636829777343</v>
+        <v>0.2801418283637199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3355258761244662</v>
+        <v>0.3101487231310393</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2138283405220615</v>
+        <v>-0.4194390750433699</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1564711046603464</v>
+        <v>-0.2702438191289341</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.02722959222535455</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.2568204368805638</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2655545728250846</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-0.2965068712464946</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.2966815092273329</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.1185747259579901</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.2527632363148538</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.179070408140679</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-0.3254495131697182</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.3751018790046719</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.1275569361336337</v>
+        <v>-0.3134725039910313</v>
       </c>
     </row>
   </sheetData>
